--- a/target/classes/main/resources/Processes.xlsx
+++ b/target/classes/main/resources/Processes.xlsx
@@ -68,10 +68,10 @@
     <t>Senior PHP Developer/Architect</t>
   </si>
   <si>
-    <t>Kraków</t>
-  </si>
-  <si>
-    <t/>
+    <t>.NET</t>
+  </si>
+  <si>
+    <t>C#</t>
   </si>
 </sst>
 </file>
@@ -254,16 +254,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
         <v>0.0</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -272,7 +272,7 @@
         <v>0.0</v>
       </c>
       <c r="G6" t="n">
-        <v>44005.0</v>
+        <v>44010.0</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
